--- a/mine/周报03/code/1FC/NONE_1/record_NONE_1.xlsx
+++ b/mine/周报03/code/1FC/NONE_1/record_NONE_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Deeplearning\AlexNet\02way\diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\DeepLearning\mine\周报03\code\1FC\NONE_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2BBBE0C7-6E09-4696-BA32-C0A74B52BB1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4ABA5D76-03B2-44B5-B8CF-0D25D0B7DB23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="6270" xr2:uid="{CC56315E-2314-4D36-9DD2-9CD472787658}"/>
   </bookViews>
@@ -1632,6 +1632,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Top1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> and Top5 in Train and Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6085,7 +6115,7 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9393,6 +9423,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>